--- a/IPython_Jupyter_Notebooks/testRBE.xlsx
+++ b/IPython_Jupyter_Notebooks/testRBE.xlsx
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>0.300742082047079</v>
+        <v>0.04278516832554642</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -6219,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>0.285253252323771</v>
+        <v>0.03397971545044402</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -6290,7 +6290,7 @@
         <v>1.180691795196305</v>
       </c>
       <c r="W4">
-        <v>0.4927851646815999</v>
+        <v>0.109128291354592</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -7264,7 +7264,7 @@
         <v>1.194140088732457</v>
       </c>
       <c r="W20">
-        <v>0.6274455356251393</v>
+        <v>0.07596382748832042</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -7394,7 +7394,7 @@
         <v>1.024039509810603</v>
       </c>
       <c r="W22">
-        <v>0.4067060796298957</v>
+        <v>0.1018527314034339</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -7465,7 +7465,7 @@
         <v>1.578925504950975</v>
       </c>
       <c r="W23">
-        <v>0.477629905586042</v>
+        <v>0.1780679000233291</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -7536,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="W24">
-        <v>0.3101696462711782</v>
+        <v>0.0576909604028296</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -7607,7 +7607,7 @@
         <v>1.131388947190269</v>
       </c>
       <c r="W25">
-        <v>0.2040841388080613</v>
+        <v>0.02950955201734637</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -7678,7 +7678,7 @@
         <v>1.253248051946222</v>
       </c>
       <c r="W26">
-        <v>0.1735860043539699</v>
+        <v>0.02474968398349484</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -7749,7 +7749,7 @@
         <v>1.055194670631715</v>
       </c>
       <c r="W27">
-        <v>0.4760088967502747</v>
+        <v>0.05774348540511511</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -7879,7 +7879,7 @@
         <v>1.096509686871741</v>
       </c>
       <c r="W29">
-        <v>0.4355376018240464</v>
+        <v>0.04635503381352668</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -7950,7 +7950,7 @@
         <v>1.081248064141082</v>
       </c>
       <c r="W30">
-        <v>0.4204926244935384</v>
+        <v>0.03093430684072713</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -8021,7 +8021,7 @@
         <v>1.04530935749619</v>
       </c>
       <c r="W31">
-        <v>0.6205813273284404</v>
+        <v>0.08930973422372805</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -8151,7 +8151,7 @@
         <v>1.182748701967703</v>
       </c>
       <c r="W33">
-        <v>0.3570064172250688</v>
+        <v>0.03983237446422142</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -8222,7 +8222,7 @@
         <v>1.105090808695993</v>
       </c>
       <c r="W34">
-        <v>0.4243036618718489</v>
+        <v>0.03189336964131882</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -8293,7 +8293,7 @@
         <v>1</v>
       </c>
       <c r="W35">
-        <v>0.8582009229118545</v>
+        <v>0.06362540821505308</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -8541,7 +8541,7 @@
         <v>1.181734010290861</v>
       </c>
       <c r="W39">
-        <v>0.2584139244647998</v>
+        <v>0.01682943001382982</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -8612,7 +8612,7 @@
         <v>1.137197024072603</v>
       </c>
       <c r="W40">
-        <v>0.3537492504259236</v>
+        <v>0.03226889504523423</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -8742,7 +8742,7 @@
         <v>1</v>
       </c>
       <c r="W42">
-        <v>0.8582009229118545</v>
+        <v>0.06362540821505308</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -8872,7 +8872,7 @@
         <v>1</v>
       </c>
       <c r="W44">
-        <v>0.5546323626888943</v>
+        <v>0.02484066101723133</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -8943,7 +8943,7 @@
         <v>1.106552275228558</v>
       </c>
       <c r="W45">
-        <v>0.3808478786617545</v>
+        <v>0.03260699199810629</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -9073,7 +9073,7 @@
         <v>1.136042438695086</v>
       </c>
       <c r="W47">
-        <v>0.3804097972689772</v>
+        <v>0.03760962353884495</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -9144,7 +9144,7 @@
         <v>1.055194670631715</v>
       </c>
       <c r="W48">
-        <v>0.4760088967502747</v>
+        <v>0.05774348540511511</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -9215,7 +9215,7 @@
         <v>1.091290569112425</v>
       </c>
       <c r="W49">
-        <v>0.4666646658876977</v>
+        <v>0.06187810718988598</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -9286,7 +9286,7 @@
         <v>1.001758453318286</v>
       </c>
       <c r="W50">
-        <v>0.7629462086327781</v>
+        <v>0.3392720237858744</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -9357,7 +9357,7 @@
         <v>1</v>
       </c>
       <c r="W51">
-        <v>0.4107952421049072</v>
+        <v>0.1026086066871357</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -9428,7 +9428,7 @@
         <v>1.103224182266818</v>
       </c>
       <c r="W52">
-        <v>0.6134456909335693</v>
+        <v>0.1110592045386147</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -9499,7 +9499,7 @@
         <v>1.091009383397318</v>
       </c>
       <c r="W53">
-        <v>0.769669077691894</v>
+        <v>0.6268545026321941</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -9570,7 +9570,7 @@
         <v>0.98709058466653</v>
       </c>
       <c r="W54">
-        <v>1.447618715687224</v>
+        <v>0.6363470524691903</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -9709,7 +9709,7 @@
         <v>1</v>
       </c>
       <c r="W56">
-        <v>1.086210467613477</v>
+        <v>0.3245413761551645</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -9780,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="W57">
-        <v>0.3644821842712419</v>
+        <v>0.05212265828267629</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -9851,7 +9851,7 @@
         <v>1.397560776123189</v>
       </c>
       <c r="W58">
-        <v>0.3560712256203028</v>
+        <v>0.02903257609989204</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -9922,7 +9922,7 @@
         <v>1.914013408497807</v>
       </c>
       <c r="W59">
-        <v>0.3877308638836232</v>
+        <v>0.02459654288893767</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -9993,7 +9993,7 @@
         <v>1.237675509353812</v>
       </c>
       <c r="W60">
-        <v>0.4732177916074604</v>
+        <v>0.05763126883959734</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -10191,7 +10191,7 @@
         <v>1</v>
       </c>
       <c r="W63">
-        <v>0.3489513797257964</v>
+        <v>0.03894730075237782</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -10389,7 +10389,7 @@
         <v>0.9183309673762196</v>
       </c>
       <c r="W66">
-        <v>1.350289962571085</v>
+        <v>0.1532309046162323</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -10646,7 +10646,7 @@
         <v>0.9690110008512453</v>
       </c>
       <c r="W70">
-        <v>1.461683328303465</v>
+        <v>0.122633869445813</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -10980,7 +10980,7 @@
         <v>1</v>
       </c>
       <c r="W75">
-        <v>0.4703455110270724</v>
+        <v>0.03298917984549799</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -11559,7 +11559,7 @@
         <v>1.049139479185718</v>
       </c>
       <c r="W84">
-        <v>0.3925846207965778</v>
+        <v>0.07429937666598598</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -12079,7 +12079,7 @@
         <v>0.7180595102239496</v>
       </c>
       <c r="W92">
-        <v>1.189355795559004</v>
+        <v>0.3558062012732841</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -12150,7 +12150,7 @@
         <v>0.761061191281889</v>
       </c>
       <c r="W93">
-        <v>1.021833652938171</v>
+        <v>0.3010125071875557</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -12221,7 +12221,7 @@
         <v>1</v>
       </c>
       <c r="W94">
-        <v>0.7804115497276145</v>
+        <v>0.06613777677502236</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -12292,7 +12292,7 @@
         <v>0.9902698184301212</v>
       </c>
       <c r="W95">
-        <v>0.7291072431548301</v>
+        <v>0.07132178744215492</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -12363,7 +12363,7 @@
         <v>1.065660894170315</v>
       </c>
       <c r="W96">
-        <v>0.788656840986207</v>
+        <v>0.1271006829523285</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -12434,7 +12434,7 @@
         <v>1.218009125880634</v>
       </c>
       <c r="W97">
-        <v>0.3974159020796039</v>
+        <v>0.05385810538048263</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -12505,7 +12505,7 @@
         <v>1.221809904273531</v>
       </c>
       <c r="W98">
-        <v>3.056710560757002</v>
+        <v>1.807315960429646</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -12635,7 +12635,7 @@
         <v>1.749593336425126</v>
       </c>
       <c r="W100">
-        <v>0.6563013009455789</v>
+        <v>0.08351803166604864</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -12706,7 +12706,7 @@
         <v>1</v>
       </c>
       <c r="W101">
-        <v>2.915731017074104</v>
+        <v>1.432785099903541</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -12836,7 +12836,7 @@
         <v>1.308992529639784</v>
       </c>
       <c r="W103">
-        <v>0.5722156233512679</v>
+        <v>0.08882406127177166</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -12966,7 +12966,7 @@
         <v>1.558060207629735</v>
       </c>
       <c r="W105">
-        <v>0.3154448351036078</v>
+        <v>0.03103706027213349</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -13037,7 +13037,7 @@
         <v>1.9255047925469</v>
       </c>
       <c r="W106">
-        <v>0.2420642693734029</v>
+        <v>0.02165116295149633</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -13108,7 +13108,7 @@
         <v>1.029874866052199</v>
       </c>
       <c r="W107">
-        <v>1.922712814308008</v>
+        <v>0.7964344294739999</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -13238,7 +13238,7 @@
         <v>1.015048143699647</v>
       </c>
       <c r="W109">
-        <v>3.033788987287854</v>
+        <v>1.3604375262692</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -13309,7 +13309,7 @@
         <v>1</v>
       </c>
       <c r="W110">
-        <v>0.4340721727761376</v>
+        <v>0.05678932960526458</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -13380,7 +13380,7 @@
         <v>1.6227511005346</v>
       </c>
       <c r="W111">
-        <v>0.4406220859965198</v>
+        <v>0.07427254484266578</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -13628,7 +13628,7 @@
         <v>1.420356420873695</v>
       </c>
       <c r="W115">
-        <v>0.2857327480839712</v>
+        <v>0.02395981008285188</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -13749,7 +13749,7 @@
         <v>1.218009125880634</v>
       </c>
       <c r="W117">
-        <v>0.3974159020796039</v>
+        <v>0.05385810538048263</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -13817,7 +13817,7 @@
         <v>1.221809904273531</v>
       </c>
       <c r="W118">
-        <v>3.056710560757002</v>
+        <v>1.807315960429646</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -13991,7 +13991,7 @@
         <v>1.749593336425126</v>
       </c>
       <c r="W121">
-        <v>0.6563013009455789</v>
+        <v>0.08351803166604864</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -14059,7 +14059,7 @@
         <v>1</v>
       </c>
       <c r="W122">
-        <v>2.915731017074104</v>
+        <v>1.432785099903541</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -14180,7 +14180,7 @@
         <v>1.308992529639784</v>
       </c>
       <c r="W124">
-        <v>0.5722156233512679</v>
+        <v>0.08882406127177166</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -14354,7 +14354,7 @@
         <v>1.558060207629735</v>
       </c>
       <c r="W127">
-        <v>0.3154448351036078</v>
+        <v>0.03103706027213349</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -14422,7 +14422,7 @@
         <v>1.9255047925469</v>
       </c>
       <c r="W128">
-        <v>0.2420642693734029</v>
+        <v>0.02165116295149633</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -14490,7 +14490,7 @@
         <v>1.029874866052199</v>
       </c>
       <c r="W129">
-        <v>1.922712814308008</v>
+        <v>0.7964344294739999</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -14611,7 +14611,7 @@
         <v>1.015048143699647</v>
       </c>
       <c r="W131">
-        <v>3.033788987287854</v>
+        <v>1.3604375262692</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -14679,7 +14679,7 @@
         <v>1</v>
       </c>
       <c r="W132">
-        <v>0.4340721727761376</v>
+        <v>0.05678932960526458</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -14800,7 +14800,7 @@
         <v>1.6227511005346</v>
       </c>
       <c r="W134">
-        <v>0.4406220859965198</v>
+        <v>0.07427254484266578</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -15080,7 +15080,7 @@
         <v>1.420356420873695</v>
       </c>
       <c r="W139">
-        <v>0.2857327480839712</v>
+        <v>0.02395981008285188</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -15210,7 +15210,7 @@
         <v>1</v>
       </c>
       <c r="W141">
-        <v>0.3331446165694265</v>
+        <v>0.04906037000497048</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -15517,7 +15517,7 @@
         <v>1.039822026986289</v>
       </c>
       <c r="W146">
-        <v>0.67224822874677</v>
+        <v>0.106350765803184</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -15588,7 +15588,7 @@
         <v>1.228183175097058</v>
       </c>
       <c r="W147">
-        <v>0.3996904738699663</v>
+        <v>0.04412386997558905</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -15659,7 +15659,7 @@
         <v>3.380837576462574</v>
       </c>
       <c r="W148">
-        <v>0.2795353526468249</v>
+        <v>0.06165820991615301</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -15786,7 +15786,7 @@
         <v>1</v>
       </c>
       <c r="W150">
-        <v>0.3331446165694265</v>
+        <v>0.04906037000497048</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -16267,7 +16267,7 @@
         <v>1.11691021601329</v>
       </c>
       <c r="W158">
-        <v>0.6424236380105296</v>
+        <v>0.1065058965708068</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -16574,7 +16574,7 @@
         <v>1.286863813195978</v>
       </c>
       <c r="W163">
-        <v>0.1208234321684379</v>
+        <v>0.01996358914652198</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -16763,7 +16763,7 @@
         <v>1.841537053549748</v>
       </c>
       <c r="W166">
-        <v>0.401718657910298</v>
+        <v>0.0224703296020788</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -17011,7 +17011,7 @@
         <v>1</v>
       </c>
       <c r="W170">
-        <v>0.695708577867057</v>
+        <v>0.1099439215951235</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -17200,7 +17200,7 @@
         <v>2.754008977110971</v>
       </c>
       <c r="W173">
-        <v>0.1577743902361989</v>
+        <v>0.007747813769703889</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -17389,7 +17389,7 @@
         <v>1.643942291024428</v>
       </c>
       <c r="W176">
-        <v>0.513727414828281</v>
+        <v>0.09611859136244967</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -17696,7 +17696,7 @@
         <v>1</v>
       </c>
       <c r="W181">
-        <v>0.695708577867057</v>
+        <v>0.1099439215951235</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -17944,7 +17944,7 @@
         <v>1.387432350462619</v>
       </c>
       <c r="W185">
-        <v>0.4106938626973036</v>
+        <v>0.1179523690735034</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -18074,7 +18074,7 @@
         <v>1.415920387733185</v>
       </c>
       <c r="W187">
-        <v>0.1681901867625295</v>
+        <v>0.02232904416348513</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -18440,7 +18440,7 @@
         <v>1.556247469654084</v>
       </c>
       <c r="W193">
-        <v>0.2067794990610808</v>
+        <v>0.02658594686580738</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -18688,7 +18688,7 @@
         <v>1.435867919901012</v>
       </c>
       <c r="W197">
-        <v>0.6859008327660591</v>
+        <v>0.1454851168749384</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -19113,7 +19113,7 @@
         <v>1.933567276370297</v>
       </c>
       <c r="W204">
-        <v>0.1994500992036246</v>
+        <v>0.01952441137700395</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -19361,7 +19361,7 @@
         <v>2.236199893519098</v>
       </c>
       <c r="W208">
-        <v>0.2913479997299001</v>
+        <v>0.03342394459429204</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -19550,7 +19550,7 @@
         <v>1.267851232238435</v>
       </c>
       <c r="W211">
-        <v>0.7189768537582828</v>
+        <v>0.1437162413632732</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -19739,7 +19739,7 @@
         <v>2.147227757090822</v>
       </c>
       <c r="W214">
-        <v>0.4670927702637103</v>
+        <v>0.03678664663539679</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -19810,7 +19810,7 @@
         <v>1.851114720554523</v>
       </c>
       <c r="W215">
-        <v>0.2224705018128866</v>
+        <v>0.02576067646859211</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -20176,7 +20176,7 @@
         <v>1.182457965189418</v>
       </c>
       <c r="W221">
-        <v>0.5460530591768336</v>
+        <v>0.08216196727604144</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -20306,7 +20306,7 @@
         <v>1.435018830379319</v>
       </c>
       <c r="W223">
-        <v>0.1560160935148559</v>
+        <v>0.01489839284842024</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -20672,7 +20672,7 @@
         <v>2.45236982474949</v>
       </c>
       <c r="W229">
-        <v>0.1441339528208163</v>
+        <v>0.01774977013855829</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -20802,7 +20802,7 @@
         <v>1.068423366745986</v>
       </c>
       <c r="W231">
-        <v>0.5521745289648559</v>
+        <v>0.06684269604795964</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -20991,7 +20991,7 @@
         <v>2.66487615526114</v>
       </c>
       <c r="W234">
-        <v>0.1973632015307248</v>
+        <v>0.03240967167537855</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -21829,7 +21829,7 @@
         <v>1.685005114096204</v>
       </c>
       <c r="W248">
-        <v>0.1662306041871595</v>
+        <v>0.01549694176354686</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -21900,7 +21900,7 @@
         <v>1.097162112696795</v>
       </c>
       <c r="W249">
-        <v>1.084690471815019</v>
+        <v>0.2490274580515543</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -22039,7 +22039,7 @@
         <v>1</v>
       </c>
       <c r="W251">
-        <v>0.8439944037939441</v>
+        <v>0.233716690060561</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -22110,7 +22110,7 @@
         <v>1.278171053992783</v>
       </c>
       <c r="W252">
-        <v>0.6771096166448695</v>
+        <v>0.09833597777633313</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -22181,7 +22181,7 @@
         <v>-2</v>
       </c>
       <c r="W253">
-        <v>0.3080288620398998</v>
+        <v>0.01519884623210498</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -22252,7 +22252,7 @@
         <v>1.067274363028617</v>
       </c>
       <c r="W254">
-        <v>0.6030083074130065</v>
+        <v>0.05867426415316895</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -22323,7 +22323,7 @@
         <v>1</v>
       </c>
       <c r="W255">
-        <v>0.489514402477342</v>
+        <v>0.03926635408993701</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -22394,7 +22394,7 @@
         <v>1.185913424355066</v>
       </c>
       <c r="W256">
-        <v>0.5543321399122401</v>
+        <v>0.05570672012466014</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -22465,7 +22465,7 @@
         <v>1.14250795191626</v>
       </c>
       <c r="W257">
-        <v>0.5391522116367889</v>
+        <v>0.05154095879585121</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -22536,7 +22536,7 @@
         <v>1</v>
       </c>
       <c r="W258">
-        <v>0.4932666427100748</v>
+        <v>0.03932917182137848</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -22725,7 +22725,7 @@
         <v>1.194666067392344</v>
       </c>
       <c r="W261">
-        <v>0.55286750983848</v>
+        <v>0.05552135090017622</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -22796,7 +22796,7 @@
         <v>1.045913688881918</v>
       </c>
       <c r="W262">
-        <v>0.6175059947802403</v>
+        <v>0.05765160888432494</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -25139,7 +25139,7 @@
         <v>1.47002934740655</v>
       </c>
       <c r="W298">
-        <v>0.391042571090385</v>
+        <v>0.04523361311769711</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -25328,7 +25328,7 @@
         <v>2.66824554251701</v>
       </c>
       <c r="W301">
-        <v>0.3681883991638548</v>
+        <v>0.116982763611413</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -25399,7 +25399,7 @@
         <v>0.9103247693470522</v>
       </c>
       <c r="W302">
-        <v>0.5097207615732186</v>
+        <v>0.05009673165106922</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -25470,7 +25470,7 @@
         <v>1</v>
       </c>
       <c r="W303">
-        <v>0.46541487434511</v>
+        <v>0.0477918981025957</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -25541,7 +25541,7 @@
         <v>1.326134137601853</v>
       </c>
       <c r="W304">
-        <v>0.3873121864783085</v>
+        <v>0.05703829688534849</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -25612,7 +25612,7 @@
         <v>3.274896898102214</v>
       </c>
       <c r="W305">
-        <v>0.3805203415103844</v>
+        <v>0.1368196438020698</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -25742,7 +25742,7 @@
         <v>1.152972975950842</v>
       </c>
       <c r="W307">
-        <v>0.6524992282846948</v>
+        <v>0.06616523703027187</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -25813,7 +25813,7 @@
         <v>1.085746353353385</v>
       </c>
       <c r="W308">
-        <v>0.3144045653711744</v>
+        <v>0.01928417065559279</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -25875,7 +25875,7 @@
         <v>1</v>
       </c>
       <c r="W309">
-        <v>0.3662297964128738</v>
+        <v>0.01869824036750302</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -25946,7 +25946,7 @@
         <v>1.109630202271598</v>
       </c>
       <c r="W310">
-        <v>0.3879294882058534</v>
+        <v>0.04755102053445562</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -26017,7 +26017,7 @@
         <v>1.031885947519828</v>
       </c>
       <c r="W311">
-        <v>0.465158268663992</v>
+        <v>0.1277291547533776</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -26088,7 +26088,7 @@
         <v>1.243470585026423</v>
       </c>
       <c r="W312">
-        <v>0.3693295891386529</v>
+        <v>0.07986956262280777</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -26159,7 +26159,7 @@
         <v>1.099158008611412</v>
       </c>
       <c r="W313">
-        <v>0.3215839634838049</v>
+        <v>0.03349091496654439</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -26230,7 +26230,7 @@
         <v>1</v>
       </c>
       <c r="W314">
-        <v>0.37819782715745</v>
+        <v>0.03968959415733559</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -26301,7 +26301,7 @@
         <v>1</v>
       </c>
       <c r="W315">
-        <v>0.8988417364258495</v>
+        <v>0.6173718111369135</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -26490,7 +26490,7 @@
         <v>1.026305464625995</v>
       </c>
       <c r="W318">
-        <v>0.3322946446346839</v>
+        <v>0.02623861321143534</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -26629,7 +26629,7 @@
         <v>1.381213442155859</v>
       </c>
       <c r="W320">
-        <v>0.3894396432332477</v>
+        <v>0.03895202078397975</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -26700,7 +26700,7 @@
         <v>1</v>
       </c>
       <c r="W321">
-        <v>0.4816176155522802</v>
+        <v>0.06022559958411622</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -26771,7 +26771,7 @@
         <v>1.785702040342422</v>
       </c>
       <c r="W322">
-        <v>0.4372057054423552</v>
+        <v>0.0562605183012009</v>
       </c>
     </row>
     <row r="323" spans="1:23">
@@ -26992,7 +26992,7 @@
         <v>1</v>
       </c>
       <c r="W326">
-        <v>0.3514398788191669</v>
+        <v>0.009458302586385284</v>
       </c>
     </row>
     <row r="327" spans="1:23">
@@ -27340,7 +27340,7 @@
         <v>1</v>
       </c>
       <c r="W332">
-        <v>0.3813103871881531</v>
+        <v>0.03530528552367936</v>
       </c>
     </row>
     <row r="333" spans="1:23">
@@ -27411,7 +27411,7 @@
         <v>0.9855374323441074</v>
       </c>
       <c r="W333">
-        <v>0.6973679627516699</v>
+        <v>0.07690295844995182</v>
       </c>
     </row>
     <row r="334" spans="1:23">
@@ -27482,7 +27482,7 @@
         <v>1</v>
       </c>
       <c r="W334">
-        <v>1.811068486161986</v>
+        <v>0.2614316379510714</v>
       </c>
     </row>
     <row r="335" spans="1:23">
@@ -27553,7 +27553,7 @@
         <v>1</v>
       </c>
       <c r="W335">
-        <v>0.8965618128531998</v>
+        <v>0.07890634093073227</v>
       </c>
     </row>
     <row r="336" spans="1:23">
@@ -27683,7 +27683,7 @@
         <v>1</v>
       </c>
       <c r="W337">
-        <v>0.3813103871881531</v>
+        <v>0.03530528552367936</v>
       </c>
     </row>
     <row r="338" spans="1:23">
@@ -27754,7 +27754,7 @@
         <v>1.070186880828557</v>
       </c>
       <c r="W338">
-        <v>1.348075746301969</v>
+        <v>0.156780262804791</v>
       </c>
     </row>
     <row r="339" spans="1:23">
@@ -27825,7 +27825,7 @@
         <v>1</v>
       </c>
       <c r="W339">
-        <v>0.600027826764628</v>
+        <v>0.06760915079927089</v>
       </c>
     </row>
     <row r="340" spans="1:23">
@@ -27896,7 +27896,7 @@
         <v>1</v>
       </c>
       <c r="W340">
-        <v>0.8965618128531998</v>
+        <v>0.07890634093073227</v>
       </c>
     </row>
     <row r="341" spans="1:23">
@@ -28168,7 +28168,7 @@
         <v>1.222670743315935</v>
       </c>
       <c r="W344">
-        <v>0.3356055077019281</v>
+        <v>0.06375577754322889</v>
       </c>
     </row>
     <row r="345" spans="1:23">
@@ -28366,7 +28366,7 @@
         <v>1.477295901721131</v>
       </c>
       <c r="W347">
-        <v>0.4531088445601616</v>
+        <v>0.07745691199259505</v>
       </c>
     </row>
     <row r="348" spans="1:23">
@@ -28505,7 +28505,7 @@
         <v>0.7943179233074515</v>
       </c>
       <c r="W349">
-        <v>0.5535361028289738</v>
+        <v>0.05064011723281769</v>
       </c>
     </row>
     <row r="350" spans="1:23">
@@ -28793,7 +28793,7 @@
         <v>1</v>
       </c>
       <c r="W355">
-        <v>0.3708692135521091</v>
+        <v>0.0325095930502103</v>
       </c>
     </row>
     <row r="356" spans="1:23">
@@ -29223,7 +29223,7 @@
         <v>1.582031092866701</v>
       </c>
       <c r="W363">
-        <v>0.3364363845837439</v>
+        <v>0.03306320415070517</v>
       </c>
     </row>
     <row r="364" spans="1:23">
@@ -29353,7 +29353,7 @@
         <v>1.299441171481295</v>
       </c>
       <c r="W365">
-        <v>0.4313538588862486</v>
+        <v>0.06970944282575733</v>
       </c>
     </row>
     <row r="366" spans="1:23">
@@ -29424,7 +29424,7 @@
         <v>1</v>
       </c>
       <c r="W366">
-        <v>0.6401194075822858</v>
+        <v>0.06917897107013871</v>
       </c>
     </row>
     <row r="367" spans="1:23">
@@ -29554,7 +29554,7 @@
         <v>1.545877171510012</v>
       </c>
       <c r="W368">
-        <v>0.3500324780465348</v>
+        <v>0.03716664817943592</v>
       </c>
     </row>
     <row r="369" spans="1:23">
@@ -29625,7 +29625,7 @@
         <v>1.502797236657313</v>
       </c>
       <c r="W369">
-        <v>0.4258479926479037</v>
+        <v>0.04538804784278954</v>
       </c>
     </row>
     <row r="370" spans="1:23">
@@ -29755,7 +29755,7 @@
         <v>1.317490021426812</v>
       </c>
       <c r="W371">
-        <v>0.4228220580094329</v>
+        <v>0.04745783644343865</v>
       </c>
     </row>
     <row r="372" spans="1:23">
@@ -29826,7 +29826,7 @@
         <v>1.459185353771856</v>
       </c>
       <c r="W372">
-        <v>0.4354312214638666</v>
+        <v>0.04775899545777723</v>
       </c>
     </row>
     <row r="373" spans="1:23">
@@ -29897,7 +29897,7 @@
         <v>1.606081998616387</v>
       </c>
       <c r="W373">
-        <v>0.3372620733144064</v>
+        <v>0.03692827961857516</v>
       </c>
     </row>
     <row r="374" spans="1:23">
@@ -30027,7 +30027,7 @@
         <v>1.35406597900938</v>
       </c>
       <c r="W375">
-        <v>0.4072740794660382</v>
+        <v>0.06166639225319415</v>
       </c>
     </row>
     <row r="376" spans="1:23">
@@ -30098,7 +30098,7 @@
         <v>1.246279194750293</v>
       </c>
       <c r="W376">
-        <v>0.4607668160755061</v>
+        <v>0.08068086006083257</v>
       </c>
     </row>
     <row r="377" spans="1:23">
@@ -30228,7 +30228,7 @@
         <v>1.62640026137158</v>
       </c>
       <c r="W378">
-        <v>0.3333206389855394</v>
+        <v>0.03349210800493315</v>
       </c>
     </row>
     <row r="379" spans="1:23">
@@ -30662,7 +30662,7 @@
         <v>1</v>
       </c>
       <c r="W385">
-        <v>0.4450732339886008</v>
+        <v>0.05861809278250289</v>
       </c>
     </row>
     <row r="386" spans="1:23">
@@ -30733,7 +30733,7 @@
         <v>1.121808237566667</v>
       </c>
       <c r="W386">
-        <v>0.5136260369934394</v>
+        <v>0.05793636484763302</v>
       </c>
     </row>
     <row r="387" spans="1:23">
@@ -31304,7 +31304,7 @@
         <v>1</v>
       </c>
       <c r="W397">
-        <v>0.2092534688706497</v>
+        <v>0.02100712201238308</v>
       </c>
     </row>
     <row r="398" spans="1:23">
@@ -31375,7 +31375,7 @@
         <v>1.094857170509341</v>
       </c>
       <c r="W398">
-        <v>0.07388725489542271</v>
+        <v>0.010567441810724</v>
       </c>
     </row>
     <row r="399" spans="1:23">
@@ -31446,7 +31446,7 @@
         <v>1</v>
       </c>
       <c r="W399">
-        <v>0.3246105456254412</v>
+        <v>0.07371456917521356</v>
       </c>
     </row>
     <row r="400" spans="1:23">
@@ -31517,7 +31517,7 @@
         <v>0.3969881565111878</v>
       </c>
       <c r="W400">
-        <v>0.2611194359856337</v>
+        <v>0.04596061444697463</v>
       </c>
     </row>
     <row r="401" spans="1:23">
@@ -31588,7 +31588,7 @@
         <v>1</v>
       </c>
       <c r="W401">
-        <v>0.6749844633235734</v>
+        <v>0.06567560923055747</v>
       </c>
     </row>
     <row r="402" spans="1:23">
@@ -31659,7 +31659,7 @@
         <v>1.535588748958131</v>
       </c>
       <c r="W402">
-        <v>0.4668257649333585</v>
+        <v>0.1841558811744438</v>
       </c>
     </row>
     <row r="403" spans="1:23">
@@ -31730,7 +31730,7 @@
         <v>1</v>
       </c>
       <c r="W403">
-        <v>0.3242948918063404</v>
+        <v>0.03830209690580524</v>
       </c>
     </row>
     <row r="404" spans="1:23">
@@ -31801,7 +31801,7 @@
         <v>1</v>
       </c>
       <c r="W404">
-        <v>0.5896144073556531</v>
+        <v>0.07525690405364863</v>
       </c>
     </row>
     <row r="405" spans="1:23">
@@ -31990,7 +31990,7 @@
         <v>1</v>
       </c>
       <c r="W407">
-        <v>0.3409385642262258</v>
+        <v>0.04192398832422375</v>
       </c>
     </row>
     <row r="408" spans="1:23">
@@ -32061,7 +32061,7 @@
         <v>1</v>
       </c>
       <c r="W408">
-        <v>0.5091276814915494</v>
+        <v>0.06467378035137117</v>
       </c>
     </row>
     <row r="409" spans="1:23">
@@ -32132,7 +32132,7 @@
         <v>1</v>
       </c>
       <c r="W409">
-        <v>0.4838242368321464</v>
+        <v>0.04699188799996835</v>
       </c>
     </row>
     <row r="410" spans="1:23">
@@ -32203,7 +32203,7 @@
         <v>1</v>
       </c>
       <c r="W410">
-        <v>0.4241245288587664</v>
+        <v>0.04841317420834446</v>
       </c>
     </row>
     <row r="411" spans="1:23">
@@ -32333,7 +32333,7 @@
         <v>1</v>
       </c>
       <c r="W412">
-        <v>0.4212368567785366</v>
+        <v>0.03632209216565861</v>
       </c>
     </row>
     <row r="413" spans="1:23">
@@ -32404,7 +32404,7 @@
         <v>1</v>
       </c>
       <c r="W413">
-        <v>0.6470076206320537</v>
+        <v>0.1504148669244534</v>
       </c>
     </row>
     <row r="414" spans="1:23">
@@ -32534,7 +32534,7 @@
         <v>1</v>
       </c>
       <c r="W415">
-        <v>0.5571229167915822</v>
+        <v>0.0918601468151346</v>
       </c>
     </row>
     <row r="416" spans="1:23">
@@ -32605,7 +32605,7 @@
         <v>1</v>
       </c>
       <c r="W416">
-        <v>0.4304929656757911</v>
+        <v>0.05787681726075883</v>
       </c>
     </row>
     <row r="417" spans="1:23">
@@ -32853,7 +32853,7 @@
         <v>0.9985678298671156</v>
       </c>
       <c r="W420">
-        <v>0.6935429449545288</v>
+        <v>0.07375922977473512</v>
       </c>
     </row>
     <row r="421" spans="1:23">
@@ -32924,7 +32924,7 @@
         <v>1.438838282245395</v>
       </c>
       <c r="W421">
-        <v>0.506345942606113</v>
+        <v>0.09654852910661764</v>
       </c>
     </row>
     <row r="422" spans="1:23">
@@ -32995,7 +32995,7 @@
         <v>1.673677223701379</v>
       </c>
       <c r="W422">
-        <v>0.6802496426983583</v>
+        <v>0.0684409866409797</v>
       </c>
     </row>
     <row r="423" spans="1:23">
@@ -33066,7 +33066,7 @@
         <v>1.272984451124683</v>
       </c>
       <c r="W423">
-        <v>0.4468094032849636</v>
+        <v>0.06843565657885056</v>
       </c>
     </row>
     <row r="424" spans="1:23">
@@ -33137,7 +33137,7 @@
         <v>1.111007222855199</v>
       </c>
       <c r="W424">
-        <v>0.559357981767722</v>
+        <v>0.06088483489207666</v>
       </c>
     </row>
     <row r="425" spans="1:23">
@@ -33267,7 +33267,7 @@
         <v>1.04755379701831</v>
       </c>
       <c r="W426">
-        <v>0.6104942144845549</v>
+        <v>0.06806758239185974</v>
       </c>
     </row>
     <row r="427" spans="1:23">
@@ -33397,7 +33397,7 @@
         <v>1.33580240809665</v>
       </c>
       <c r="W428">
-        <v>0.5912315374911409</v>
+        <v>0.09745227974222502</v>
       </c>
     </row>
     <row r="429" spans="1:23">
@@ -33468,7 +33468,7 @@
         <v>1.137393688842163</v>
       </c>
       <c r="W429">
-        <v>0.7034750926105594</v>
+        <v>0.117866100507289</v>
       </c>
     </row>
     <row r="430" spans="1:23">
@@ -33716,7 +33716,7 @@
         <v>1.457631876764536</v>
       </c>
       <c r="W433">
-        <v>0.5304858175147809</v>
+        <v>0.09092630013533724</v>
       </c>
     </row>
     <row r="434" spans="1:23">
@@ -33787,7 +33787,7 @@
         <v>1.172156319408165</v>
       </c>
       <c r="W434">
-        <v>0.4825390880281116</v>
+        <v>0.06573918408704001</v>
       </c>
     </row>
     <row r="435" spans="1:23">
@@ -34035,7 +34035,7 @@
         <v>1.523266236696378</v>
       </c>
       <c r="W438">
-        <v>0.6261867753513097</v>
+        <v>0.2042065654654019</v>
       </c>
     </row>
     <row r="439" spans="1:23">
@@ -34106,7 +34106,7 @@
         <v>1.133967714696423</v>
       </c>
       <c r="W439">
-        <v>0.5151045487603605</v>
+        <v>0.061061765634375</v>
       </c>
     </row>
     <row r="440" spans="1:23">
@@ -34177,7 +34177,7 @@
         <v>1.248963203938871</v>
       </c>
       <c r="W440">
-        <v>0.4962964996636535</v>
+        <v>0.05768034795241694</v>
       </c>
     </row>
     <row r="441" spans="1:23">
@@ -34248,7 +34248,7 @@
         <v>1.641514890896321</v>
       </c>
       <c r="W441">
-        <v>0.6257114536238899</v>
+        <v>0.1127588868576057</v>
       </c>
     </row>
     <row r="442" spans="1:23">
@@ -34378,7 +34378,7 @@
         <v>1.546867353644908</v>
       </c>
       <c r="W443">
-        <v>0.4170011327138987</v>
+        <v>0.04516075394611437</v>
       </c>
     </row>
     <row r="444" spans="1:23">
@@ -34449,7 +34449,7 @@
         <v>1.326033039912334</v>
       </c>
       <c r="W444">
-        <v>0.4088662687464511</v>
+        <v>0.06137369874778097</v>
       </c>
     </row>
     <row r="445" spans="1:23">
@@ -34520,7 +34520,7 @@
         <v>1.596514957153704</v>
       </c>
       <c r="W445">
-        <v>0.6282432045686345</v>
+        <v>0.113189127914077</v>
       </c>
     </row>
     <row r="446" spans="1:23">
@@ -34591,7 +34591,7 @@
         <v>1.64131356552785</v>
       </c>
       <c r="W446">
-        <v>0.8001450687372407</v>
+        <v>0.1641769716790056</v>
       </c>
     </row>
     <row r="447" spans="1:23">
@@ -34662,7 +34662,7 @@
         <v>1</v>
       </c>
       <c r="W447">
-        <v>0.6921839759017815</v>
+        <v>0.166947611838294</v>
       </c>
     </row>
     <row r="448" spans="1:23">
@@ -34969,7 +34969,7 @@
         <v>1</v>
       </c>
       <c r="W452">
-        <v>0.4556046938844633</v>
+        <v>0.05685076912200587</v>
       </c>
     </row>
     <row r="453" spans="1:23">
@@ -35099,7 +35099,7 @@
         <v>1.018836511711254</v>
       </c>
       <c r="W454">
-        <v>0.6139197270959517</v>
+        <v>0.06538367231986206</v>
       </c>
     </row>
     <row r="455" spans="1:23">
@@ -35170,7 +35170,7 @@
         <v>1.169091531862263</v>
       </c>
       <c r="W455">
-        <v>0.5293750034952506</v>
+        <v>0.05876892967412633</v>
       </c>
     </row>
     <row r="456" spans="1:23">
@@ -35477,7 +35477,7 @@
         <v>1.228826543061709</v>
       </c>
       <c r="W460">
-        <v>0.4728642983215116</v>
+        <v>0.0661735269757418</v>
       </c>
     </row>
     <row r="461" spans="1:23">
@@ -35548,7 +35548,7 @@
         <v>1</v>
       </c>
       <c r="W461">
-        <v>0.4241245288587664</v>
+        <v>0.04841317420834446</v>
       </c>
     </row>
     <row r="462" spans="1:23">
@@ -35619,7 +35619,7 @@
         <v>1</v>
       </c>
       <c r="W462">
-        <v>0.6921839759017815</v>
+        <v>0.166947611838294</v>
       </c>
     </row>
     <row r="463" spans="1:23">
@@ -35808,7 +35808,7 @@
         <v>1</v>
       </c>
       <c r="W465">
-        <v>0.6404113719792307</v>
+        <v>0.07344691311838515</v>
       </c>
     </row>
     <row r="466" spans="1:23">
@@ -35997,7 +35997,7 @@
         <v>1.064015783402725</v>
       </c>
       <c r="W468">
-        <v>0.5732706740620853</v>
+        <v>0.0643154277409039</v>
       </c>
     </row>
     <row r="469" spans="1:23">
@@ -36127,7 +36127,7 @@
         <v>1.102915468234432</v>
       </c>
       <c r="W470">
-        <v>0.5541189122319858</v>
+        <v>0.0763067662177357</v>
       </c>
     </row>
     <row r="471" spans="1:23">
@@ -36198,7 +36198,7 @@
         <v>1</v>
       </c>
       <c r="W471">
-        <v>0.6404113719792307</v>
+        <v>0.07344691311838515</v>
       </c>
     </row>
     <row r="472" spans="1:23">
@@ -36269,7 +36269,7 @@
         <v>0.9572720406957084</v>
       </c>
       <c r="W472">
-        <v>0.72401563823088</v>
+        <v>0.07563868324044422</v>
       </c>
     </row>
     <row r="473" spans="1:23">
@@ -36399,7 +36399,7 @@
         <v>1.046093686739014</v>
       </c>
       <c r="W474">
-        <v>0.5841121669477769</v>
+        <v>0.0690100597573327</v>
       </c>
     </row>
     <row r="475" spans="1:23">
@@ -36470,7 +36470,7 @@
         <v>1.04755379701831</v>
       </c>
       <c r="W475">
-        <v>0.6104942144845549</v>
+        <v>0.06806758239185974</v>
       </c>
     </row>
     <row r="476" spans="1:23">
@@ -36552,7 +36552,7 @@
         <v>1</v>
       </c>
       <c r="W477">
-        <v>0.8189681717505843</v>
+        <v>0.09022788848043799</v>
       </c>
     </row>
     <row r="478" spans="1:23">
@@ -36623,7 +36623,7 @@
         <v>1.194140088732457</v>
       </c>
       <c r="W478">
-        <v>0.6274455356251393</v>
+        <v>0.07596382748832042</v>
       </c>
     </row>
     <row r="479" spans="1:23">
@@ -36694,7 +36694,7 @@
         <v>1</v>
       </c>
       <c r="W479">
-        <v>0.4192901157529724</v>
+        <v>0.05025944814614788</v>
       </c>
     </row>
     <row r="480" spans="1:23">
@@ -36765,7 +36765,7 @@
         <v>1.591034578618377</v>
       </c>
       <c r="W480">
-        <v>0.4235497240604156</v>
+        <v>0.1070250752910167</v>
       </c>
     </row>
     <row r="481" spans="1:23">
@@ -36904,7 +36904,7 @@
         <v>1.895755733530955</v>
       </c>
       <c r="W482">
-        <v>0.2372856503263766</v>
+        <v>0.02958118013541403</v>
       </c>
     </row>
     <row r="483" spans="1:23">
@@ -36975,7 +36975,7 @@
         <v>1</v>
       </c>
       <c r="W483">
-        <v>0.5108159005791943</v>
+        <v>0.05360289285052457</v>
       </c>
     </row>
     <row r="484" spans="1:23">
@@ -37046,7 +37046,7 @@
         <v>1</v>
       </c>
       <c r="W484">
-        <v>0.76853016201563</v>
+        <v>0.189079764840651</v>
       </c>
     </row>
     <row r="485" spans="1:23">
@@ -37117,7 +37117,7 @@
         <v>1</v>
       </c>
       <c r="W485">
-        <v>1.040716988004729</v>
+        <v>0.1600904570447617</v>
       </c>
     </row>
     <row r="486" spans="1:23">
@@ -37256,7 +37256,7 @@
         <v>0.649658707841905</v>
       </c>
       <c r="W487">
-        <v>0.86089189897042</v>
+        <v>0.179365977277848</v>
       </c>
     </row>
     <row r="488" spans="1:23">
@@ -37327,7 +37327,7 @@
         <v>1.088376949548738</v>
       </c>
       <c r="W488">
-        <v>0.2856822015339065</v>
+        <v>0.04382494489073428</v>
       </c>
     </row>
     <row r="489" spans="1:23">
@@ -38004,7 +38004,7 @@
         <v>1</v>
       </c>
       <c r="W498">
-        <v>0.5575136099169355</v>
+        <v>0.2694571374938586</v>
       </c>
     </row>
     <row r="499" spans="1:23">
@@ -38075,7 +38075,7 @@
         <v>1.048237630660956</v>
       </c>
       <c r="W499">
-        <v>0.4262274074782271</v>
+        <v>0.200871162156299</v>
       </c>
     </row>
     <row r="500" spans="1:23">
@@ -38146,7 +38146,7 @@
         <v>1</v>
       </c>
       <c r="W500">
-        <v>0.7095063396875965</v>
+        <v>0.1308372759235573</v>
       </c>
     </row>
     <row r="501" spans="1:23">
@@ -38217,7 +38217,7 @@
         <v>0.2063085802737878</v>
       </c>
       <c r="W501">
-        <v>1.347916077473248</v>
+        <v>0.3222498894626747</v>
       </c>
     </row>
     <row r="502" spans="1:23">
@@ -38356,7 +38356,7 @@
         <v>1.103224182266818</v>
       </c>
       <c r="W503">
-        <v>0.6134456909335693</v>
+        <v>0.1110592045386147</v>
       </c>
     </row>
     <row r="504" spans="1:23">
@@ -38427,7 +38427,7 @@
         <v>1.103224182266818</v>
       </c>
       <c r="W504">
-        <v>0.6134456909335693</v>
+        <v>0.1110592045386147</v>
       </c>
     </row>
     <row r="505" spans="1:23">
@@ -38566,7 +38566,7 @@
         <v>1.767399286889142</v>
       </c>
       <c r="W506">
-        <v>0.528038223463036</v>
+        <v>0.04193208419040983</v>
       </c>
     </row>
     <row r="507" spans="1:23">
@@ -38782,7 +38782,7 @@
         <v>1.039822026986289</v>
       </c>
       <c r="W512">
-        <v>0.67224822874677</v>
+        <v>0.106350765803184</v>
       </c>
     </row>
     <row r="513" spans="1:23">
@@ -38853,7 +38853,7 @@
         <v>1.586767284432882</v>
       </c>
       <c r="W513">
-        <v>0.5957264931782078</v>
+        <v>0.07137953306300253</v>
       </c>
     </row>
     <row r="514" spans="1:23">
@@ -38924,7 +38924,7 @@
         <v>1.676500095070393</v>
       </c>
       <c r="W514">
-        <v>0.4169277475394589</v>
+        <v>0.05092300218016414</v>
       </c>
     </row>
     <row r="515" spans="1:23">
@@ -39199,7 +39199,7 @@
         <v>1</v>
       </c>
       <c r="W518">
-        <v>0.8624160887354257</v>
+        <v>0.1018890005151441</v>
       </c>
     </row>
     <row r="519" spans="1:23">
@@ -39270,7 +39270,7 @@
         <v>2.077550617554657</v>
       </c>
       <c r="W519">
-        <v>0.4820925911886072</v>
+        <v>0.08489140962560829</v>
       </c>
     </row>
   </sheetData>
